--- a/datasets/jogo.xlsx
+++ b/datasets/jogo.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:BYE14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BYE1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
